--- a/config/excel/system_config.xlsx
+++ b/config/excel/system_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="7170" tabRatio="296"/>
+    <workbookView windowWidth="23895" windowHeight="10350" tabRatio="296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>Type</t>
   </si>
@@ -31,10 +31,13 @@
     <t>SVal</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>float32</t>
   </si>
   <si>
-    <t>string</t>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -43,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,14 +62,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -75,44 +70,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -130,6 +88,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -138,23 +128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -166,21 +148,42 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -194,97 +197,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,6 +298,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -328,17 +390,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -351,59 +407,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -412,10 +415,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -424,133 +427,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,6 +637,11 @@
       <color rgb="00000000"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -889,20 +897,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -927,14 +934,15 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -970,10 +978,21 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/system_config.xlsx
+++ b/config/excel/system_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18195" windowHeight="7170" tabRatio="296"/>
+    <workbookView windowWidth="26130" windowHeight="11595" tabRatio="296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>Type</t>
   </si>
@@ -36,14 +36,17 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>max_role_amount</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -59,6 +62,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -68,51 +84,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -125,62 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -194,25 +197,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,13 +263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,19 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,25 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,6 +331,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -356,40 +374,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,6 +389,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -412,10 +415,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -424,133 +427,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -634,6 +637,11 @@
       <color rgb="00000000"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -896,13 +904,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -976,6 +984,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
